--- a/aoiConditions/train2Block20.xlsx
+++ b/aoiConditions/train2Block20.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
   </si>
 </sst>
 </file>
